--- a/teaching/traditional_assets/database/data/netherlands/netherlands_power.xlsx
+++ b/teaching/traditional_assets/database/data/netherlands/netherlands_power.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.441</v>
+        <v>-0.424</v>
       </c>
       <c r="G2">
-        <v>0.1094827586206897</v>
+        <v>-0.1292156119742327</v>
       </c>
       <c r="H2">
-        <v>0.05419540229885057</v>
+        <v>-0.1660098522167488</v>
       </c>
       <c r="I2">
-        <v>0.004310738374617983</v>
+        <v>-0.3535460425462049</v>
       </c>
       <c r="J2">
-        <v>0.004310738374617983</v>
+        <v>-0.3535460425462049</v>
       </c>
       <c r="K2">
-        <v>0.15</v>
+        <v>-17.6</v>
       </c>
       <c r="L2">
-        <v>0.008620689655172414</v>
+        <v>-0.6669192876089428</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0002037763407423113</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0.009829545454545454</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +627,82 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.173</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.251</v>
+        <v>15.474</v>
       </c>
       <c r="V2">
-        <v>0.02548223350253807</v>
+        <v>0.01822679246616488</v>
       </c>
       <c r="W2">
-        <v>0.2586206896551724</v>
+        <v>2.451243201243201</v>
       </c>
       <c r="X2">
-        <v>0.05494180677759852</v>
+        <v>0.04079135508737444</v>
       </c>
       <c r="Y2">
-        <v>0.2036788828775739</v>
+        <v>2.410451846155827</v>
       </c>
       <c r="Z2">
-        <v>31.24069952882873</v>
+        <v>0.6487312938813432</v>
       </c>
       <c r="AA2">
-        <v>0.1346704823088319</v>
+        <v>-0.1433236232278912</v>
       </c>
       <c r="AB2">
-        <v>0.04542552939312017</v>
+        <v>0.03333054557380447</v>
       </c>
       <c r="AC2">
-        <v>0.08924495291571177</v>
+        <v>-0.1766541688016956</v>
       </c>
       <c r="AD2">
-        <v>4.56</v>
+        <v>73.45</v>
       </c>
       <c r="AE2">
-        <v>0.1799657614082355</v>
+        <v>0.1354003139717425</v>
       </c>
       <c r="AF2">
-        <v>4.739965761408235</v>
+        <v>73.58540031397175</v>
       </c>
       <c r="AG2">
-        <v>4.488965761408235</v>
+        <v>58.11140031397174</v>
       </c>
       <c r="AH2">
-        <v>0.3248784705133352</v>
+        <v>0.07976258150884874</v>
       </c>
       <c r="AI2">
-        <v>0.2627480464263489</v>
+        <v>1.109794978471248</v>
       </c>
       <c r="AJ2">
-        <v>0.3130606374338237</v>
+        <v>0.06406415156771753</v>
       </c>
       <c r="AK2">
-        <v>0.252345516969103</v>
+        <v>1.143218560870513</v>
       </c>
       <c r="AL2">
-        <v>0.365</v>
+        <v>4.275</v>
       </c>
       <c r="AM2">
-        <v>0.362</v>
+        <v>4.141</v>
       </c>
       <c r="AN2">
-        <v>6.120805369127516</v>
+        <v>-15.1349680609932</v>
       </c>
       <c r="AO2">
-        <v>-0.1150684931506849</v>
+        <v>-2.208421052631579</v>
       </c>
       <c r="AP2">
-        <v>6.025457397863402</v>
+        <v>-11.97432522439146</v>
       </c>
       <c r="AQ2">
-        <v>-0.1160220994475138</v>
+        <v>-2.279884085969572</v>
       </c>
     </row>
     <row r="3">
@@ -719,34 +722,34 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.441</v>
+        <v>-0.424</v>
       </c>
       <c r="G3">
-        <v>0.1094827586206897</v>
+        <v>0.09470899470899471</v>
       </c>
       <c r="H3">
-        <v>0.05419540229885057</v>
+        <v>0.04333333333333333</v>
       </c>
       <c r="I3">
-        <v>0.004310738374617983</v>
+        <v>-0.006882543004991985</v>
       </c>
       <c r="J3">
-        <v>0.004310738374617983</v>
+        <v>-0.006882543004991985</v>
       </c>
       <c r="K3">
-        <v>0.15</v>
+        <v>-3.8</v>
       </c>
       <c r="L3">
-        <v>0.008620689655172414</v>
+        <v>-0.2010582010582011</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.173</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.02518195050946142</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>-0.04552631578947369</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +758,207 @@
         <v>-0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.173</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0.274</v>
+      </c>
+      <c r="V3">
+        <v>0.03988355167394469</v>
+      </c>
+      <c r="W3">
+        <v>-0.3247863247863248</v>
+      </c>
+      <c r="X3">
+        <v>0.04673970568957293</v>
+      </c>
+      <c r="Y3">
+        <v>-0.3715260304758977</v>
+      </c>
+      <c r="Z3">
+        <v>3.192891002047921</v>
+      </c>
+      <c r="AA3">
+        <v>-0.02197520963184676</v>
+      </c>
+      <c r="AB3">
+        <v>0.03298354988144742</v>
+      </c>
+      <c r="AC3">
+        <v>-0.05495875951329419</v>
+      </c>
+      <c r="AD3">
+        <v>4.95</v>
+      </c>
+      <c r="AE3">
+        <v>0.1354003139717425</v>
+      </c>
+      <c r="AF3">
+        <v>5.085400313971743</v>
+      </c>
+      <c r="AG3">
+        <v>4.811400313971743</v>
+      </c>
+      <c r="AH3">
+        <v>0.4253642856298724</v>
+      </c>
+      <c r="AI3">
+        <v>0.4066563393648459</v>
+      </c>
+      <c r="AJ3">
+        <v>0.4118855774694223</v>
+      </c>
+      <c r="AK3">
+        <v>0.3933646345035207</v>
+      </c>
+      <c r="AL3">
+        <v>0.275</v>
+      </c>
+      <c r="AM3">
+        <v>0.273</v>
+      </c>
+      <c r="AN3">
+        <v>5.172413793103448</v>
+      </c>
+      <c r="AO3">
+        <v>-0.8763636363636362</v>
+      </c>
+      <c r="AP3">
+        <v>5.027586534975698</v>
+      </c>
+      <c r="AQ3">
+        <v>-0.8827838827838826</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fastned B.V. (ENXTAM:FAST)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>-0.6942590120160214</v>
+      </c>
+      <c r="H4">
+        <v>-0.6942590120160214</v>
+      </c>
+      <c r="I4">
+        <v>-1.228304405874499</v>
+      </c>
+      <c r="J4">
+        <v>-1.228304405874499</v>
+      </c>
+      <c r="K4">
+        <v>-13.8</v>
+      </c>
+      <c r="L4">
+        <v>-1.842456608811749</v>
+      </c>
+      <c r="M4">
         <v>-0</v>
       </c>
-      <c r="S3">
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>0.251</v>
-      </c>
-      <c r="V3">
-        <v>0.02548223350253807</v>
-      </c>
-      <c r="W3">
-        <v>0.2586206896551724</v>
-      </c>
-      <c r="X3">
-        <v>0.05494180677759852</v>
-      </c>
-      <c r="Y3">
-        <v>0.2036788828775739</v>
-      </c>
-      <c r="Z3">
-        <v>31.24069952882873</v>
-      </c>
-      <c r="AA3">
-        <v>0.1346704823088319</v>
-      </c>
-      <c r="AB3">
-        <v>0.04542552939312017</v>
-      </c>
-      <c r="AC3">
-        <v>0.08924495291571177</v>
-      </c>
-      <c r="AD3">
-        <v>4.56</v>
-      </c>
-      <c r="AE3">
-        <v>0.1799657614082355</v>
-      </c>
-      <c r="AF3">
-        <v>4.739965761408235</v>
-      </c>
-      <c r="AG3">
-        <v>4.488965761408235</v>
-      </c>
-      <c r="AH3">
-        <v>0.3248784705133352</v>
-      </c>
-      <c r="AI3">
-        <v>0.2627480464263489</v>
-      </c>
-      <c r="AJ3">
-        <v>0.3130606374338237</v>
-      </c>
-      <c r="AK3">
-        <v>0.252345516969103</v>
-      </c>
-      <c r="AL3">
-        <v>0.365</v>
-      </c>
-      <c r="AM3">
-        <v>0.362</v>
-      </c>
-      <c r="AN3">
-        <v>6.120805369127516</v>
-      </c>
-      <c r="AO3">
-        <v>-0.1150684931506849</v>
-      </c>
-      <c r="AP3">
-        <v>6.025457397863402</v>
-      </c>
-      <c r="AQ3">
-        <v>-0.1160220994475138</v>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>15.2</v>
+      </c>
+      <c r="V4">
+        <v>0.01805011281320508</v>
+      </c>
+      <c r="W4">
+        <v>5.227272727272728</v>
+      </c>
+      <c r="X4">
+        <v>0.03484300448517595</v>
+      </c>
+      <c r="Y4">
+        <v>5.192429722787551</v>
+      </c>
+      <c r="Z4">
+        <v>0.2154775604142693</v>
+      </c>
+      <c r="AA4">
+        <v>-0.2646720368239355</v>
+      </c>
+      <c r="AB4">
+        <v>0.03367754126616151</v>
+      </c>
+      <c r="AC4">
+        <v>-0.298349578090097</v>
+      </c>
+      <c r="AD4">
+        <v>68.5</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>68.5</v>
+      </c>
+      <c r="AG4">
+        <v>53.3</v>
+      </c>
+      <c r="AH4">
+        <v>0.075225126290358</v>
+      </c>
+      <c r="AI4">
+        <v>1.273234200743494</v>
+      </c>
+      <c r="AJ4">
+        <v>0.0595264686173777</v>
+      </c>
+      <c r="AK4">
+        <v>1.380829015544041</v>
+      </c>
+      <c r="AL4">
+        <v>4</v>
+      </c>
+      <c r="AM4">
+        <v>3.868</v>
+      </c>
+      <c r="AN4">
+        <v>-11.79001721170396</v>
+      </c>
+      <c r="AO4">
+        <v>-2.3</v>
+      </c>
+      <c r="AP4">
+        <v>-9.173838209982788</v>
+      </c>
+      <c r="AQ4">
+        <v>-2.378490175801448</v>
       </c>
     </row>
   </sheetData>
